--- a/ArtTel/WebContent/data/reportTemplate/InvoiceTemplate.xlsx
+++ b/ArtTel/WebContent/data/reportTemplate/InvoiceTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="75" windowWidth="9435" windowHeight="4545"/>
@@ -901,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -974,18 +974,212 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1035,199 +1229,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,8 +1537,8 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1554,243 +1563,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="61" t="s">
+      <c r="A1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="38" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="43" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="41" t="s">
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
     </row>
     <row r="4" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57" t="s">
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="142"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="145"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="145"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="145"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="35" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="91"/>
     </row>
     <row r="10" spans="1:14" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="90" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="87"/>
     </row>
     <row r="11" spans="1:14" ht="6" customHeight="1" thickBot="1">
       <c r="A11" s="4"/>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="80" t="s">
+      <c r="G12" s="107"/>
+      <c r="H12" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="84"/>
-      <c r="J12" s="86" t="s">
+      <c r="I12" s="105"/>
+      <c r="J12" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="80" t="s">
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="81"/>
+      <c r="N12" s="102"/>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="85"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="93"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="104"/>
     </row>
     <row r="14" spans="1:14" s="7" customFormat="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="89"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="14" t="s">
         <v>9</v>
       </c>
@@ -1823,15 +1832,15 @@
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="111"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="75"/>
     </row>
     <row r="16" spans="1:14" ht="13.5" thickBot="1">
       <c r="A16" s="18"/>
@@ -1839,19 +1848,19 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="108"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="107"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="109"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="73"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="18"/>
@@ -1859,19 +1868,19 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="113" t="s">
+      <c r="F17" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="114"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="96"/>
       <c r="J17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="76"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="77"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="98"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="18"/>
@@ -1879,17 +1888,17 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
       <c r="J18" s="9">
         <v>23</v>
       </c>
-      <c r="K18" s="72"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="73"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" thickBot="1">
       <c r="A19" s="18" t="s">
@@ -1899,53 +1908,53 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
       <c r="J19" s="9">
         <v>8</v>
       </c>
-      <c r="K19" s="72"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="73"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="65"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="96"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="71"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
       <c r="J20" s="9">
         <v>5</v>
       </c>
-      <c r="K20" s="72"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="73"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="19">
         <v>0</v>
       </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="95"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="82"/>
     </row>
     <row r="22" spans="1:14" ht="4.5" customHeight="1" thickBot="1">
       <c r="A22" s="10"/>
@@ -1962,13 +1971,13 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="130"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -1980,11 +1989,11 @@
       <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A24" s="131"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="136"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -2012,128 +2021,153 @@
       <c r="N25" s="24"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="139"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
     </row>
     <row r="27" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A27" s="140"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="142"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="45"/>
     </row>
     <row r="28" spans="1:14" ht="4.5" customHeight="1" thickBot="1">
       <c r="B28" s="16"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="118"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="47"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="B30" s="119"/>
-      <c r="C30" s="120"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="120"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="49"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="B31" s="119"/>
-      <c r="C31" s="120"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="120"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="49"/>
     </row>
     <row r="32" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B32" s="121"/>
-      <c r="C32" s="122"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="122"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="51"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="126" t="s">
+      <c r="B33" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="126"/>
+      <c r="C33" s="55"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="126" t="s">
+      <c r="G33" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="A26:N27"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="G29:M32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="F6:N8"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F10:N10"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="B12:B14"/>
@@ -2150,41 +2184,16 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="F17:G21"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="F6:N8"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="A26:N27"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="G29:M32"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/ArtTel/WebContent/data/reportTemplate/InvoiceTemplate.xlsx
+++ b/ArtTel/WebContent/data/reportTemplate/InvoiceTemplate.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Arkusz1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>pieczęć sprzedawcy</t>
   </si>
@@ -79,13 +79,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>zw</t>
-  </si>
-  <si>
     <t>RAZEM</t>
-  </si>
-  <si>
-    <t>W TYM</t>
   </si>
   <si>
     <t>podpis imienny osoby upoważnionej do odbioru faktur VAT</t>
@@ -158,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$PLN]"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -291,6 +285,12 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -901,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -917,7 +917,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -941,7 +940,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -955,10 +953,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -974,6 +968,45 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,37 +1076,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1085,43 +1109,28 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1171,6 +1180,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1179,6 +1203,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1229,15 +1262,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1535,24 +1559,24 @@
   <sheetPr codeName="Arkusz1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" style="1" customWidth="1"/>
@@ -1563,576 +1587,548 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="125"/>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="137" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="119"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="119" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="126" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="133"/>
     </row>
     <row r="4" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="136"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="133" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="133" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="140"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
+      <c r="A5" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="149"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="151"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="143"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="145"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="122"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="143"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="145"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="143"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="145"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="122"/>
+    </row>
+    <row r="8" spans="1:14" ht="23.25" customHeight="1">
+      <c r="A8" s="120"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="122"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A9" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="91"/>
+      <c r="A9" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
     </row>
     <row r="10" spans="1:14" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A10" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87"/>
+      <c r="A10" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:14" ht="6" customHeight="1" thickBot="1">
       <c r="A11" s="4"/>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A12" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="68" t="s">
+      <c r="A12" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="108"/>
+      <c r="H12" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="105"/>
-      <c r="J12" s="107" t="s">
+      <c r="I12" s="106"/>
+      <c r="J12" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="102"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="103"/>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="11" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="88" t="s">
+      <c r="K13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="104"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="105"/>
     </row>
     <row r="14" spans="1:14" s="7" customFormat="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="14" t="s">
+      <c r="A14" s="95"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="7" customFormat="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="75"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="26" t="s">
+      <c r="F16" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="101"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="73"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="88"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="98"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="18"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="99"/>
+    </row>
+    <row r="18" spans="1:14" ht="13.5" thickBot="1">
+      <c r="A18" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="9">
-        <v>23</v>
-      </c>
-      <c r="K18" s="64"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="65"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A19" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="9">
-        <v>8</v>
-      </c>
-      <c r="K19" s="64"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="9">
-        <v>5</v>
-      </c>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="67"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="64"/>
-      <c r="L20" s="84"/>
+      <c r="L20" s="65"/>
       <c r="M20" s="64"/>
-      <c r="N20" s="65"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="19">
-        <v>0</v>
-      </c>
-      <c r="K21" s="76"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="82"/>
-    </row>
-    <row r="22" spans="1:14" ht="4.5" customHeight="1" thickBot="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="24" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-    </row>
-    <row r="25" spans="1:14" ht="3.75" customHeight="1" thickBot="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="42"/>
-    </row>
-    <row r="27" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="45"/>
-    </row>
-    <row r="28" spans="1:14" ht="4.5" customHeight="1" thickBot="1">
-      <c r="B28" s="16"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
+      <c r="N20" s="84"/>
+    </row>
+    <row r="21" spans="1:14" ht="4.5" customHeight="1" thickBot="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="70"/>
+    </row>
+    <row r="23" spans="1:14" ht="13.5" thickBot="1">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="73"/>
+    </row>
+    <row r="24" spans="1:14" ht="3.75" customHeight="1" thickBot="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="51"/>
+    </row>
+    <row r="26" spans="1:14" ht="13.5" thickBot="1">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="54"/>
+    </row>
+    <row r="27" spans="1:14" ht="4.5" customHeight="1" thickBot="1">
+      <c r="B27" s="15"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
       <c r="M28" s="56"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="47"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="58"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="49"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="49"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="51"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="58"/>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" thickBot="1">
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="60"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="61">
+  <mergeCells count="59">
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="F6:N8"/>
@@ -2146,12 +2142,6 @@
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:N5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
@@ -2160,40 +2150,44 @@
     <mergeCell ref="H12:I13"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="F12:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="K15:L15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="A25:N26"/>
+    <mergeCell ref="B28:C31"/>
+    <mergeCell ref="G28:M31"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="G22:N23"/>
+    <mergeCell ref="F17:G20"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F17:G21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="A26:N27"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="G29:M32"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
